--- a/doc/ue_gc.xlsx
+++ b/doc/ue_gc.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7936932B-D6BC-4F8D-8C3A-AC188576465E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F9AB32-9EF1-46F7-94CF-EDFEC4F69443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gc" sheetId="7" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
   <si>
     <t>GC调用</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,6 +256,37 @@
   </si>
   <si>
     <t>非Uobject派生类，继承自FGCObject，且实现AddReferencedObjects接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Given an object, put it into a state where a GC may purge it (assuming there are no external references).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> */</t>
+  </si>
+  <si>
+    <t>void MakeObjectPurgeable(UObject* InObject)</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>if (InObject-&gt;IsRooted())</t>
+  </si>
+  <si>
+    <t>InObject-&gt;RemoveFromRoot();</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>InObject-&gt;ClearFlags(RF_Public | RF_Standalone);</t>
+  </si>
+  <si>
+    <t>强制取消Standalone标志位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -322,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -336,6 +368,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -676,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="36.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1000,4 +1033,80 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7F72EF-722D-4FB9-978B-54C0A02FF8DF}">
+  <dimension ref="B5:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B5" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/ue_gc.xlsx
+++ b/doc/ue_gc.xlsx
@@ -1,292 +1,606 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F9AB32-9EF1-46F7-94CF-EDFEC4F69443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC7BDE8-D214-4B8C-A395-67888ED667DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gc" sheetId="7" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
+    <sheet name="多线程" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="168">
   <si>
     <t>GC调用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>#define GARBAGE_COLLECTION_KEEPFLAGS (GIsEditor ? RF_Standalone : RF_NoFlags)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void CollectGarbage(EObjectFlags KeepFlags, bool bPerformFullPurge)</t>
+  </si>
+  <si>
+    <t>AcquireGCLock();</t>
+  </si>
+  <si>
+    <t>CollectGarbageInternal(KeepFlags, bPerformFullPurge);</t>
+  </si>
+  <si>
+    <t>ReleaseGCLock();</t>
+  </si>
+  <si>
+    <t>判断GFlushStreamingOnGC，如果是TRUE，则FlushAsyncLoading();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GFlushStreamingOnGC全局开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制提交所有异步加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TagUsedRealtimeGC.PerformReachabilityAnalysis(KeepFlags, bForceSingleThreadedGC, bWithClusters);</t>
+  </si>
+  <si>
+    <t>标记所有对象表示：是否可达，是否需要扫描</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FGCArrayPool::Get().ClearWeakReferences(bPerformFullPurge);</t>
+  </si>
+  <si>
+    <t>GatherUnreachableObjects(bForceSingleThreadedGC);</t>
+  </si>
+  <si>
+    <t>NotifyUnreachableObjects(GUnreachableObjects);</t>
+  </si>
+  <si>
+    <t>IncrementalPurgeGarbage</t>
+  </si>
+  <si>
+    <t>ShrinkUObjectHashTables</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeleteLoaders</t>
+  </si>
+  <si>
+    <t>FMemory::Trim();</t>
+  </si>
+  <si>
+    <t>标记物体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个物体都对应里面一个元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历GUObjectArray中所有的FUObjectItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分为分布式扫描和非分布式扫描</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:分布式扫描</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:非分布式扫描</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:如果KeepFlags!=RF_NoFlags且玩家包含该属性，则认为bMarkAsUnreachable=false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意宏定义，在编辑器默认下RF_Standalone，表示不实际删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑器模式下RF_Standalone都是可达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：如果FUObjectItem:IsRootSet(),则LocalObjectsToSerialize.Add(Object);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3：如果bMarkAsUnreachable=false则LocalObjectsToSerialize.Add(Object);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4：否则设置对象ObjectItem-&gt;SetFlags(EInternalObjectFlags::Unreachable);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将要被删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个也就解释了为啥要AddToRoot()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一步调用MarkObjectsAsUnreachable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二步调用PerformReachabilityAnalysisOnObjects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将所有ObjectsToSerialize的对象返回下面的PerformReachabilityAnalysisOnObjects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将不可达的物体（if (ObjectItem-&gt;IsUnreachable())）放入GUnreachableObjects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnhashUnreachableObjects</t>
+  </si>
+  <si>
+    <t>将不可达的物体（if (ObjectItem-&gt;IsUnreachable())）执行ConditionalBeginDestroy函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IncrementalDestroyGarbage</t>
+  </si>
+  <si>
+    <t>将不可达的物体（if (ObjectItem-&gt;IsUnreachable())）执行ConditionalFinishDestroy函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAsyncPurge-&gt;TickPurge</t>
+  </si>
+  <si>
+    <t>TickDestroyObjects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TickDestroyGameThreadObjects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可达的物体删除回收，执行析构函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可达的物体删除回收，执行析构函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入ROOT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从ROOT删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单说就是扫描ROOT对象的属性，将PROERTY属性加入Reference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用所有Reference对象的ObjectItem-&gt;ClearUnreachable();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除不可达标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RemoveFromROOT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddToROOT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以上判断，只要未包含ROOT基本都是被设置为Unreachable（系统大量的操作，例如创建全局的SubSystem对象等等都不会设置ROOT，这个地方虽然设置了不可达 ），但是其实很多都不会被销毁的，因为后续的AddReferencedObjects会再次判断一下是否可达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很重要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">例如Engine对象内部的EngineSubsystemCollection，就是一个FGCObject，保持了所有的SubSystem </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPROPERTY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPROPERTY引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddReferencedObjects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重写UObject的AddReferencedObjects接口为UObject对象添加引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FGCObject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非Uobject派生类，继承自FGCObject，且实现AddReferencedObjects接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Given an object, put it into a state where a GC may purge it (assuming there are no external references).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> */</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>if (InObject-&gt;IsRooted())</t>
+  </si>
+  <si>
+    <t>InObject-&gt;RemoveFromRoot();</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>强制取消Standalone标志位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>CollectGarbage(GARBAGE_COLLECTION_KEEPFLAGS, true);</t>
-  </si>
-  <si>
-    <t>#define GARBAGE_COLLECTION_KEEPFLAGS (GIsEditor ? RF_Standalone : RF_NoFlags)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void CollectGarbage(EObjectFlags KeepFlags, bool bPerformFullPurge)</t>
-  </si>
-  <si>
-    <t>AcquireGCLock();</t>
-  </si>
-  <si>
-    <t>CollectGarbageInternal(KeepFlags, bPerformFullPurge);</t>
-  </si>
-  <si>
-    <t>ReleaseGCLock();</t>
-  </si>
-  <si>
-    <t>判断GFlushStreamingOnGC，如果是TRUE，则FlushAsyncLoading();</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GFlushStreamingOnGC全局开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强制提交所有异步加载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TagUsedRealtimeGC.PerformReachabilityAnalysis(KeepFlags, bForceSingleThreadedGC, bWithClusters);</t>
-  </si>
-  <si>
-    <t>标记所有对象表示：是否可达，是否需要扫描</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FGCArrayPool::Get().ClearWeakReferences(bPerformFullPurge);</t>
-  </si>
-  <si>
-    <t>GatherUnreachableObjects(bForceSingleThreadedGC);</t>
-  </si>
-  <si>
-    <t>NotifyUnreachableObjects(GUnreachableObjects);</t>
-  </si>
-  <si>
-    <t>IncrementalPurgeGarbage</t>
-  </si>
-  <si>
-    <t>ShrinkUObjectHashTables</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeleteLoaders</t>
-  </si>
-  <si>
-    <t>FMemory::Trim();</t>
-  </si>
-  <si>
-    <t>标记物体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个物体都对应里面一个元素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遍历GUObjectArray中所有的FUObjectItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分为分布式扫描和非分布式扫描</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:分布式扫描</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？？？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2:非分布式扫描</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2:如果KeepFlags!=RF_NoFlags且玩家包含该属性，则认为bMarkAsUnreachable=false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意宏定义，在编辑器默认下RF_Standalone，表示不实际删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑器模式下RF_Standalone都是可达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：如果FUObjectItem:IsRootSet(),则LocalObjectsToSerialize.Add(Object);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3：如果bMarkAsUnreachable=false则LocalObjectsToSerialize.Add(Object);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4：否则设置对象ObjectItem-&gt;SetFlags(EInternalObjectFlags::Unreachable);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将要被删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个也就解释了为啥要AddToRoot()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一步调用MarkObjectsAsUnreachable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二步调用PerformReachabilityAnalysisOnObjects</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将所有ObjectsToSerialize的对象返回下面的PerformReachabilityAnalysisOnObjects</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将不可达的物体（if (ObjectItem-&gt;IsUnreachable())）放入GUnreachableObjects</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnhashUnreachableObjects</t>
-  </si>
-  <si>
-    <t>将不可达的物体（if (ObjectItem-&gt;IsUnreachable())）执行ConditionalBeginDestroy函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IncrementalDestroyGarbage</t>
-  </si>
-  <si>
-    <t>将不可达的物体（if (ObjectItem-&gt;IsUnreachable())）执行ConditionalFinishDestroy函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAsyncPurge-&gt;TickPurge</t>
-  </si>
-  <si>
-    <t>TickDestroyObjects</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TickDestroyGameThreadObjects</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不可达的物体删除回收，执行析构函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不可达的物体删除回收，执行析构函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加入ROOT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从ROOT删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？？？？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简单说就是扫描ROOT对象的属性，将PROERTY属性加入Reference</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用所有Reference对象的ObjectItem-&gt;ClearUnreachable();</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清除不可达标志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RemoveFromROOT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddToROOT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以上判断，只要未包含ROOT基本都是被设置为Unreachable（系统大量的操作，例如创建全局的SubSystem对象等等都不会设置ROOT，这个地方虽然设置了不可达 ），但是其实很多都不会被销毁的，因为后续的AddReferencedObjects会再次判断一下是否可达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>很重要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">例如Engine对象内部的EngineSubsystemCollection，就是一个FGCObject，保持了所有的SubSystem </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPROPERTY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPROPERTY引用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddReferencedObjects</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重写UObject的AddReferencedObjects接口为UObject对象添加引用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FGCObject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非Uobject派生类，继承自FGCObject，且实现AddReferencedObjects接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/**</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> * Given an object, put it into a state where a GC may purge it (assuming there are no external references).</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> */</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非游戏线程中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FGCScopeGuard</t>
+  </si>
+  <si>
+    <t>/** Lock on non-game thread. Will block if GC is running. */</t>
+  </si>
+  <si>
+    <t>void LockAsync()</t>
+  </si>
+  <si>
+    <t>if (!IsInGameThread())</t>
+  </si>
+  <si>
+    <t>// Wait until GC is done if it was running when entering this function</t>
+  </si>
+  <si>
+    <t>bool bLocked = false;</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>if (GCCounter.GetValue() &gt; 0)</t>
+  </si>
+  <si>
+    <t>GCUnlockedEvent-&gt;Wait();</t>
+  </si>
+  <si>
+    <t>FScopeLock CriticalLock(&amp;Critical);</t>
+  </si>
+  <si>
+    <t>if (GCCounter.GetValue() == 0)</t>
+  </si>
+  <si>
+    <t>AsyncCounter.Increment();</t>
+  </si>
+  <si>
+    <t>bLocked = true;</t>
+  </si>
+  <si>
+    <t>} while (!bLocked);</t>
+  </si>
+  <si>
+    <t>/** Release lock from non-game thread */</t>
+  </si>
+  <si>
+    <t>void UnlockAsync()</t>
+  </si>
+  <si>
+    <t>AsyncCounter.Decrement();</t>
+  </si>
+  <si>
+    <t>void AcquireGCLock()</t>
+  </si>
+  <si>
+    <t>const double StartTime = FPlatformTime::Seconds();</t>
+  </si>
+  <si>
+    <t>FGCCSyncObject::Get().GCLock();</t>
+  </si>
+  <si>
+    <t>const double ElapsedTime = FPlatformTime::Seconds() - StartTime;</t>
+  </si>
+  <si>
+    <t>if (FPlatformProperties::RequiresCookedData() &amp;&amp; ElapsedTime &gt; 0.001)</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogGarbage, Warning, TEXT("%f ms for acquiring GC lock"), ElapsedTime * 1000);</t>
+  </si>
+  <si>
+    <t>void ReleaseGCLock()</t>
+  </si>
+  <si>
+    <t>FGCCSyncObject::Get().GCUnlock();</t>
+  </si>
+  <si>
+    <t>FGCCSyncObject</t>
+  </si>
+  <si>
+    <t>全局唯一的类变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FGCCSyncObject::Get().LockAsync();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FGCCSyncObject::Get().UnlockAsync();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对外接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** Non zero if any of the non-game threads is blocking GC */</t>
+  </si>
+  <si>
+    <t>FThreadSafeCounter AsyncCounter;</t>
+  </si>
+  <si>
+    <t>/** Non zero if GC is running */</t>
+  </si>
+  <si>
+    <t>FThreadSafeCounter GCCounter;</t>
+  </si>
+  <si>
+    <t>/** Non zero if GC wants to run but is blocked by some other thread \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    This flag is not automatically enforced on the async threads, instead</t>
+  </si>
+  <si>
+    <t>threads have to manually implement support for it. */</t>
+  </si>
+  <si>
+    <t>TAtomic&lt;int32&gt; GCWantsToRunCounter {0};</t>
+  </si>
+  <si>
+    <t>/** Critical section for thread safe operations */</t>
+  </si>
+  <si>
+    <t>FCriticalSection Critical;</t>
+  </si>
+  <si>
+    <t>/** Event used to block non-game threads when GC is running */</t>
+  </si>
+  <si>
+    <t>FEvent* GCUnlockedEvent;</t>
+  </si>
+  <si>
+    <t>GC只能在gameThread中进行，为了防止其他线程会进行操作，就需要进行同步处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要实现同步的原理就是FGCCSyncObject上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果当前GC正在进行，其他线程请求LockAsync就需要等待，等待GCunlockedEvent信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GC没在运行时，其他线程就可以操作了，这个时候将该标志位++，主要++前需要用Critical锁一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般是非GameThread调用上锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非GameThread调用去锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GC调用加锁 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GC调用释放锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** Lock for GC. Will block if any other thread has locked. */</t>
+  </si>
+  <si>
+    <t>void GCLock()</t>
+  </si>
+  <si>
+    <t>// Signal other threads that GC wants to run</t>
+  </si>
+  <si>
+    <t>SetGCIsWaiting();</t>
+  </si>
+  <si>
+    <t>// Wait until all other threads are done if they're currently holding the lock</t>
+  </si>
+  <si>
+    <t>FPlatformProcess::ConditionalSleep([&amp;]()</t>
+  </si>
+  <si>
+    <t>return AsyncCounter.GetValue() == 0;</t>
+  </si>
+  <si>
+    <t>});</t>
+  </si>
+  <si>
+    <t>if (AsyncCounter.GetValue() == 0)</t>
+  </si>
+  <si>
+    <t>GCUnlockedEvent-&gt;Reset();</t>
+  </si>
+  <si>
+    <t>int32 GCCounterValue = GCCounter.Increment();</t>
+  </si>
+  <si>
+    <t>check(GCCounterValue == 1); // GCLock doesn't support recursive locks</t>
+  </si>
+  <si>
+    <t>// At this point GC can run so remove the signal that it's waiting</t>
+  </si>
+  <si>
+    <t>FPlatformMisc::MemoryBarrier();</t>
+  </si>
+  <si>
+    <t>ResetGCIsWaiting();</t>
+  </si>
+  <si>
+    <t>实现见下面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前设置一下自己想要锁,获得了会释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死等，直到没其他线程在用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是不见得之后没人在用，所以下面还要加锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次判断别人用了没有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// No other thread may be performing UObject operations while we're running</t>
+  </si>
+  <si>
+    <t>// Perform actual garbage collection</t>
+  </si>
+  <si>
+    <t>// Other threads are free to use UObjects</t>
+  </si>
+  <si>
+    <t>整个GC的过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先加锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InObject-&gt;ClearFlags(RF_Public | RF_Standalone);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APawn* m_pObj1 = NewObject&lt;APawn&gt;();</t>
+  </si>
+  <si>
+    <t>UTexture2D* pObj1 = Cast&lt;UTexture2D&gt;(StaticLoadObject(UTexture2D::StaticClass(), NULL, TEXT("/Game/AdvancedVillagePack/Textures/11ppp")));</t>
+  </si>
+  <si>
+    <t>CollectGarbage(RF_Standalone, true);</t>
+  </si>
+  <si>
+    <t>强制GC后，最上面的销毁了，但是下面的资源没销毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为资源加载的时候，LoadPackeage的Export里面ObjFlag有这个RF_Standalone，所以不销毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>void MakeObjectPurgeable(UObject* InObject)</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>if (InObject-&gt;IsRooted())</t>
-  </si>
-  <si>
-    <t>InObject-&gt;RemoveFromRoot();</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>InObject-&gt;ClearFlags(RF_Public | RF_Standalone);</t>
-  </si>
-  <si>
-    <t>强制取消Standalone标志位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Given a package, put it into a state where a GC may purge it (assuming there are no external references).</t>
+  </si>
+  <si>
+    <t>void MakePackagePurgeable(UPackage* InPackage)</t>
+  </si>
+  <si>
+    <t>MakeObjectPurgeable(InPackage);</t>
+  </si>
+  <si>
+    <t>ForEachObjectWithPackage(InPackage, [](UObject* InObject)</t>
+  </si>
+  <si>
+    <t>MakeObjectPurgeable(InObject);</t>
+  </si>
+  <si>
+    <t>return true; // continue</t>
+  </si>
+  <si>
+    <t>ReloadPackage</t>
+  </si>
+  <si>
+    <t>清空Package的standlone标志位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新加载的时候可以清楚之前的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -354,7 +668,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -369,6 +683,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -710,7 +1025,7 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="36.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -737,238 +1052,238 @@
     </row>
     <row r="6" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="4:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="4:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="4:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="4:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="4:8" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="22" spans="4:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="4:8" ht="115.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="24" spans="4:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="4:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E25" s="1"/>
       <c r="F25" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="4:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E26" s="1"/>
       <c r="F26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="28" spans="4:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D28" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="4:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D29" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="4:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D30" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="4:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="32" spans="4:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D32" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E33" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E35" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E36" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E37" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D38" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D40" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -976,56 +1291,56 @@
     <row r="44" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="45" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="48" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="54" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="57" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1037,76 +1352,928 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7F72EF-722D-4FB9-978B-54C0A02FF8DF}">
-  <dimension ref="B5:E16"/>
+  <dimension ref="B5:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="5" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
-        <v>67</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D15" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
-        <v>71</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B33" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C38" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C39" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C40" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986A7F82-C594-4C4D-8605-F938AB8CD590}">
+  <dimension ref="B3:W123"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B3" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C10" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D14" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C15" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="D17" t="s">
+        <v>105</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="D18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="D19" t="s">
+        <v>107</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="D20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="E21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="G22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="D23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="D24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="D25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="D26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="D27" t="s">
+        <v>115</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="M31" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" t="s">
+        <v>73</v>
+      </c>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+    </row>
+    <row r="33" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+    </row>
+    <row r="34" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="M34" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+    </row>
+    <row r="35" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+    </row>
+    <row r="36" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+    </row>
+    <row r="37" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="M37" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+    </row>
+    <row r="38" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="C38" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="O38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="C39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="C40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="C41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="D42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="D43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="E44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="E45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="E46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="E47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="F48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="F49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="G50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="F51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="F52" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="G53" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="G54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="G55" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="H56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="H57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="G58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="F59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="E60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C62" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C63" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C64" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="D67" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="D68" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="E69" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C71" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C74" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C76" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="D77" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="D78" t="s">
+        <v>92</v>
+      </c>
+      <c r="N78" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="D79" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="D80" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D81" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E82" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C84" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C85" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C86" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C87" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D88" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C89" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="95" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D95" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="96" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D96" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="97" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D97" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="98" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="E98" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="99" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="E99" t="s">
+        <v>129</v>
+      </c>
+      <c r="O99" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="101" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="E101" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="E102" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="103" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="E103" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="104" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="E104" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="105" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="F105" t="s">
+        <v>131</v>
+      </c>
+      <c r="O105" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="106" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="F106" t="s">
+        <v>66</v>
+      </c>
+      <c r="O106" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="107" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="G107" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="F108" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="109" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="F109" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="110" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="G110" t="s">
+        <v>82</v>
+      </c>
+      <c r="O110" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="111" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="G111" t="s">
+        <v>134</v>
+      </c>
+      <c r="O111" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="112" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="G112" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="113" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="H113" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="114" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="H114" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="115" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="H115" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="116" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="H116" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="117" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="H117" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="118" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="H118" t="s">
+        <v>140</v>
+      </c>
+      <c r="O118" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="119" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="H119" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="120" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="G120" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="121" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="F121" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="122" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="E122" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="123" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_gc.xlsx
+++ b/doc/ue_gc.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC7BDE8-D214-4B8C-A395-67888ED667DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DFCB5E-877F-4648-8DF2-99D142638FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gc" sheetId="7" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
+    <sheet name="Standalone" sheetId="8" r:id="rId2"/>
     <sheet name="多线程" sheetId="9" r:id="rId3"/>
+    <sheet name="TokenStream" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="202">
   <si>
     <t>GC调用</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -601,6 +602,117 @@
   </si>
   <si>
     <t>重新加载的时候可以清楚之前的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void ProcessObjectArray(FGCArrayStruct&amp; InObjectsToSerializeStruct, const FGraphEventRef&amp; MyCompletionGraphEvent)</t>
+  </si>
+  <si>
+    <t>计算Reference对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FGCReferenceTokenStream* RESTRICT TokenStream = &amp;CurrentObject-&gt;GetClass()-&gt;ReferenceTokenStream;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看到，从当前对象的Class对象里面，获取ReferenceTokenStream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FGCReferenceInfo ReferenceInfo = TokenStream-&gt;AccessReferenceInfo(ReferenceTokenStreamIndex);</t>
+  </si>
+  <si>
+    <t>while (true)</t>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch(ReferenceInfo.Type)</t>
+  </si>
+  <si>
+    <t>case GCRT_Object:</t>
+  </si>
+  <si>
+    <t>case GCRT_Class:</t>
+  </si>
+  <si>
+    <t>// We're dealing with an object reference (this code should be identical to GCRT_NoopClass if ShouldProcessNoOpTokens())</t>
+  </si>
+  <si>
+    <t>UObject**</t>
+  </si>
+  <si>
+    <t>ObjectPtr = (UObject**)(StackEntryData + ReferenceInfo.Offset);</t>
+  </si>
+  <si>
+    <t>UObject*&amp;</t>
+  </si>
+  <si>
+    <t>Object = *ObjectPtr;</t>
+  </si>
+  <si>
+    <t>TokenReturnCount = ReferenceInfo.ReturnCount;</t>
+  </si>
+  <si>
+    <t>ReferenceProcessor.HandleTokenStreamObjectReference(NewObjectsToSerialize, CurrentObject, Object, ReferenceTokenStreamIndex, true);</t>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>而在每一个Obj的基类里面：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UObjectBase::EmitBaseReferences(UClass *RootClass)</t>
+  </si>
+  <si>
+    <t>static const FName ClassPropertyName(TEXT("Class"));</t>
+  </si>
+  <si>
+    <t>static const FName OuterPropertyName(TEXT("Outer"));</t>
+  </si>
+  <si>
+    <t>// Mark UObject class reference as persistent object reference so that it (ClassPrivate) doesn't get nulled when a class</t>
+  </si>
+  <si>
+    <t>// is marked as pending kill. Nulling ClassPrivate may leave the object in a broken state if it doesn't get GC'd in the same</t>
+  </si>
+  <si>
+    <t>// GC call as its class. And even if it gets GC'd in the same call as its class it may break inside of GC (for example when traversing TMap references)</t>
+  </si>
+  <si>
+    <t>RootClass-&gt;EmitObjectReference(STRUCT_OFFSET(UObjectBase, ClassPrivate), ClassPropertyName, GCRT_PersistentObject);</t>
+  </si>
+  <si>
+    <t>RootClass-&gt;EmitObjectReference(STRUCT_OFFSET(UObjectBase, OuterPrivate), OuterPropertyName, GCRT_PersistentObject);</t>
+  </si>
+  <si>
+    <t>RootClass-&gt;EmitExternalPackageReference();</t>
+  </si>
+  <si>
+    <t>先将该对象的ClassPrivate和OuterPrivate对象放入类的ReferenceToken里面，防止被GC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UClass::EmitObjectReference(int32 Offset, const FName&amp; DebugName, EGCReferenceType Kind)</t>
+  </si>
+  <si>
+    <t>FGCReferenceInfo ObjectReference(Kind, Offset);</t>
+  </si>
+  <si>
+    <t>ReferenceTokenStream.EmitReferenceInfo(ObjectReference, DebugName);</t>
+  </si>
+  <si>
+    <t>这块就和最上面的对应起来了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1354,8 +1466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7F72EF-722D-4FB9-978B-54C0A02FF8DF}">
   <dimension ref="B5:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2276,4 +2388,225 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1673AF4D-1FF6-43DB-B395-4E7841F5253D}">
+  <dimension ref="B3:H51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B3" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D9" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D10" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E13" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G19" t="s">
+        <v>180</v>
+      </c>
+      <c r="H19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G20" t="s">
+        <v>182</v>
+      </c>
+      <c r="H20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B31" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D33" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D34" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E36" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E37" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E38" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E39" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E40" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E41" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E42" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E43" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D46" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D47" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E49" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E50" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/ue_gc.xlsx
+++ b/doc/ue_gc.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DFCB5E-877F-4648-8DF2-99D142638FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778"/>
   </bookViews>
   <sheets>
     <sheet name="gc" sheetId="7" r:id="rId1"/>
@@ -283,443 +282,443 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>非游戏线程中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FGCScopeGuard</t>
+  </si>
+  <si>
+    <t>/** Lock on non-game thread. Will block if GC is running. */</t>
+  </si>
+  <si>
+    <t>void LockAsync()</t>
+  </si>
+  <si>
+    <t>if (!IsInGameThread())</t>
+  </si>
+  <si>
+    <t>// Wait until GC is done if it was running when entering this function</t>
+  </si>
+  <si>
+    <t>bool bLocked = false;</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>if (GCCounter.GetValue() &gt; 0)</t>
+  </si>
+  <si>
+    <t>GCUnlockedEvent-&gt;Wait();</t>
+  </si>
+  <si>
+    <t>FScopeLock CriticalLock(&amp;Critical);</t>
+  </si>
+  <si>
+    <t>if (GCCounter.GetValue() == 0)</t>
+  </si>
+  <si>
+    <t>AsyncCounter.Increment();</t>
+  </si>
+  <si>
+    <t>bLocked = true;</t>
+  </si>
+  <si>
+    <t>} while (!bLocked);</t>
+  </si>
+  <si>
+    <t>/** Release lock from non-game thread */</t>
+  </si>
+  <si>
+    <t>void UnlockAsync()</t>
+  </si>
+  <si>
+    <t>AsyncCounter.Decrement();</t>
+  </si>
+  <si>
+    <t>void AcquireGCLock()</t>
+  </si>
+  <si>
+    <t>const double StartTime = FPlatformTime::Seconds();</t>
+  </si>
+  <si>
+    <t>FGCCSyncObject::Get().GCLock();</t>
+  </si>
+  <si>
+    <t>const double ElapsedTime = FPlatformTime::Seconds() - StartTime;</t>
+  </si>
+  <si>
+    <t>if (FPlatformProperties::RequiresCookedData() &amp;&amp; ElapsedTime &gt; 0.001)</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogGarbage, Warning, TEXT("%f ms for acquiring GC lock"), ElapsedTime * 1000);</t>
+  </si>
+  <si>
+    <t>void ReleaseGCLock()</t>
+  </si>
+  <si>
+    <t>FGCCSyncObject::Get().GCUnlock();</t>
+  </si>
+  <si>
+    <t>FGCCSyncObject</t>
+  </si>
+  <si>
+    <t>全局唯一的类变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FGCCSyncObject::Get().LockAsync();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FGCCSyncObject::Get().UnlockAsync();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对外接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** Non zero if any of the non-game threads is blocking GC */</t>
+  </si>
+  <si>
+    <t>FThreadSafeCounter AsyncCounter;</t>
+  </si>
+  <si>
+    <t>/** Non zero if GC is running */</t>
+  </si>
+  <si>
+    <t>FThreadSafeCounter GCCounter;</t>
+  </si>
+  <si>
+    <t>/** Non zero if GC wants to run but is blocked by some other thread \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    This flag is not automatically enforced on the async threads, instead</t>
+  </si>
+  <si>
+    <t>threads have to manually implement support for it. */</t>
+  </si>
+  <si>
+    <t>TAtomic&lt;int32&gt; GCWantsToRunCounter {0};</t>
+  </si>
+  <si>
+    <t>/** Critical section for thread safe operations */</t>
+  </si>
+  <si>
+    <t>FCriticalSection Critical;</t>
+  </si>
+  <si>
+    <t>/** Event used to block non-game threads when GC is running */</t>
+  </si>
+  <si>
+    <t>FEvent* GCUnlockedEvent;</t>
+  </si>
+  <si>
+    <t>GC只能在gameThread中进行，为了防止其他线程会进行操作，就需要进行同步处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要实现同步的原理就是FGCCSyncObject上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果当前GC正在进行，其他线程请求LockAsync就需要等待，等待GCunlockedEvent信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GC没在运行时，其他线程就可以操作了，这个时候将该标志位++，主要++前需要用Critical锁一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般是非GameThread调用上锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非GameThread调用去锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GC调用加锁 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GC调用释放锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** Lock for GC. Will block if any other thread has locked. */</t>
+  </si>
+  <si>
+    <t>void GCLock()</t>
+  </si>
+  <si>
+    <t>// Signal other threads that GC wants to run</t>
+  </si>
+  <si>
+    <t>SetGCIsWaiting();</t>
+  </si>
+  <si>
+    <t>// Wait until all other threads are done if they're currently holding the lock</t>
+  </si>
+  <si>
+    <t>FPlatformProcess::ConditionalSleep([&amp;]()</t>
+  </si>
+  <si>
+    <t>return AsyncCounter.GetValue() == 0;</t>
+  </si>
+  <si>
+    <t>});</t>
+  </si>
+  <si>
+    <t>if (AsyncCounter.GetValue() == 0)</t>
+  </si>
+  <si>
+    <t>GCUnlockedEvent-&gt;Reset();</t>
+  </si>
+  <si>
+    <t>int32 GCCounterValue = GCCounter.Increment();</t>
+  </si>
+  <si>
+    <t>check(GCCounterValue == 1); // GCLock doesn't support recursive locks</t>
+  </si>
+  <si>
+    <t>// At this point GC can run so remove the signal that it's waiting</t>
+  </si>
+  <si>
+    <t>FPlatformMisc::MemoryBarrier();</t>
+  </si>
+  <si>
+    <t>ResetGCIsWaiting();</t>
+  </si>
+  <si>
+    <t>实现见下面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前设置一下自己想要锁,获得了会释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死等，直到没其他线程在用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是不见得之后没人在用，所以下面还要加锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次判断别人用了没有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// No other thread may be performing UObject operations while we're running</t>
+  </si>
+  <si>
+    <t>// Perform actual garbage collection</t>
+  </si>
+  <si>
+    <t>// Other threads are free to use UObjects</t>
+  </si>
+  <si>
+    <t>整个GC的过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先加锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InObject-&gt;ClearFlags(RF_Public | RF_Standalone);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APawn* m_pObj1 = NewObject&lt;APawn&gt;();</t>
+  </si>
+  <si>
+    <t>UTexture2D* pObj1 = Cast&lt;UTexture2D&gt;(StaticLoadObject(UTexture2D::StaticClass(), NULL, TEXT("/Game/AdvancedVillagePack/Textures/11ppp")));</t>
+  </si>
+  <si>
+    <t>CollectGarbage(RF_Standalone, true);</t>
+  </si>
+  <si>
+    <t>强制GC后，最上面的销毁了，但是下面的资源没销毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为资源加载的时候，LoadPackeage的Export里面ObjFlag有这个RF_Standalone，所以不销毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void MakeObjectPurgeable(UObject* InObject)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Given a package, put it into a state where a GC may purge it (assuming there are no external references).</t>
+  </si>
+  <si>
+    <t>void MakePackagePurgeable(UPackage* InPackage)</t>
+  </si>
+  <si>
+    <t>MakeObjectPurgeable(InPackage);</t>
+  </si>
+  <si>
+    <t>ForEachObjectWithPackage(InPackage, [](UObject* InObject)</t>
+  </si>
+  <si>
+    <t>MakeObjectPurgeable(InObject);</t>
+  </si>
+  <si>
+    <t>return true; // continue</t>
+  </si>
+  <si>
+    <t>ReloadPackage</t>
+  </si>
+  <si>
+    <t>清空Package的standlone标志位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新加载的时候可以清楚之前的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void ProcessObjectArray(FGCArrayStruct&amp; InObjectsToSerializeStruct, const FGraphEventRef&amp; MyCompletionGraphEvent)</t>
+  </si>
+  <si>
+    <t>计算Reference对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FGCReferenceTokenStream* RESTRICT TokenStream = &amp;CurrentObject-&gt;GetClass()-&gt;ReferenceTokenStream;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看到，从当前对象的Class对象里面，获取ReferenceTokenStream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FGCReferenceInfo ReferenceInfo = TokenStream-&gt;AccessReferenceInfo(ReferenceTokenStreamIndex);</t>
+  </si>
+  <si>
+    <t>while (true)</t>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch(ReferenceInfo.Type)</t>
+  </si>
+  <si>
+    <t>case GCRT_Object:</t>
+  </si>
+  <si>
+    <t>case GCRT_Class:</t>
+  </si>
+  <si>
+    <t>// We're dealing with an object reference (this code should be identical to GCRT_NoopClass if ShouldProcessNoOpTokens())</t>
+  </si>
+  <si>
+    <t>UObject**</t>
+  </si>
+  <si>
+    <t>ObjectPtr = (UObject**)(StackEntryData + ReferenceInfo.Offset);</t>
+  </si>
+  <si>
+    <t>UObject*&amp;</t>
+  </si>
+  <si>
+    <t>Object = *ObjectPtr;</t>
+  </si>
+  <si>
+    <t>TokenReturnCount = ReferenceInfo.ReturnCount;</t>
+  </si>
+  <si>
+    <t>ReferenceProcessor.HandleTokenStreamObjectReference(NewObjectsToSerialize, CurrentObject, Object, ReferenceTokenStreamIndex, true);</t>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>而在每一个Obj的基类里面：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UObjectBase::EmitBaseReferences(UClass *RootClass)</t>
+  </si>
+  <si>
+    <t>static const FName ClassPropertyName(TEXT("Class"));</t>
+  </si>
+  <si>
+    <t>static const FName OuterPropertyName(TEXT("Outer"));</t>
+  </si>
+  <si>
+    <t>// Mark UObject class reference as persistent object reference so that it (ClassPrivate) doesn't get nulled when a class</t>
+  </si>
+  <si>
+    <t>// is marked as pending kill. Nulling ClassPrivate may leave the object in a broken state if it doesn't get GC'd in the same</t>
+  </si>
+  <si>
+    <t>// GC call as its class. And even if it gets GC'd in the same call as its class it may break inside of GC (for example when traversing TMap references)</t>
+  </si>
+  <si>
+    <t>RootClass-&gt;EmitObjectReference(STRUCT_OFFSET(UObjectBase, ClassPrivate), ClassPropertyName, GCRT_PersistentObject);</t>
+  </si>
+  <si>
+    <t>RootClass-&gt;EmitObjectReference(STRUCT_OFFSET(UObjectBase, OuterPrivate), OuterPropertyName, GCRT_PersistentObject);</t>
+  </si>
+  <si>
+    <t>RootClass-&gt;EmitExternalPackageReference();</t>
+  </si>
+  <si>
+    <t>先将该对象的ClassPrivate和OuterPrivate对象放入类的ReferenceToken里面，防止被GC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UClass::EmitObjectReference(int32 Offset, const FName&amp; DebugName, EGCReferenceType Kind)</t>
+  </si>
+  <si>
+    <t>FGCReferenceInfo ObjectReference(Kind, Offset);</t>
+  </si>
+  <si>
+    <t>ReferenceTokenStream.EmitReferenceInfo(ObjectReference, DebugName);</t>
+  </si>
+  <si>
+    <t>这块就和最上面的对应起来了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>CollectGarbage(GARBAGE_COLLECTION_KEEPFLAGS, true);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非游戏线程中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FGCScopeGuard</t>
-  </si>
-  <si>
-    <t>/** Lock on non-game thread. Will block if GC is running. */</t>
-  </si>
-  <si>
-    <t>void LockAsync()</t>
-  </si>
-  <si>
-    <t>if (!IsInGameThread())</t>
-  </si>
-  <si>
-    <t>// Wait until GC is done if it was running when entering this function</t>
-  </si>
-  <si>
-    <t>bool bLocked = false;</t>
-  </si>
-  <si>
-    <t>do</t>
-  </si>
-  <si>
-    <t>if (GCCounter.GetValue() &gt; 0)</t>
-  </si>
-  <si>
-    <t>GCUnlockedEvent-&gt;Wait();</t>
-  </si>
-  <si>
-    <t>FScopeLock CriticalLock(&amp;Critical);</t>
-  </si>
-  <si>
-    <t>if (GCCounter.GetValue() == 0)</t>
-  </si>
-  <si>
-    <t>AsyncCounter.Increment();</t>
-  </si>
-  <si>
-    <t>bLocked = true;</t>
-  </si>
-  <si>
-    <t>} while (!bLocked);</t>
-  </si>
-  <si>
-    <t>/** Release lock from non-game thread */</t>
-  </si>
-  <si>
-    <t>void UnlockAsync()</t>
-  </si>
-  <si>
-    <t>AsyncCounter.Decrement();</t>
-  </si>
-  <si>
-    <t>void AcquireGCLock()</t>
-  </si>
-  <si>
-    <t>const double StartTime = FPlatformTime::Seconds();</t>
-  </si>
-  <si>
-    <t>FGCCSyncObject::Get().GCLock();</t>
-  </si>
-  <si>
-    <t>const double ElapsedTime = FPlatformTime::Seconds() - StartTime;</t>
-  </si>
-  <si>
-    <t>if (FPlatformProperties::RequiresCookedData() &amp;&amp; ElapsedTime &gt; 0.001)</t>
-  </si>
-  <si>
-    <t>UE_LOG(LogGarbage, Warning, TEXT("%f ms for acquiring GC lock"), ElapsedTime * 1000);</t>
-  </si>
-  <si>
-    <t>void ReleaseGCLock()</t>
-  </si>
-  <si>
-    <t>FGCCSyncObject::Get().GCUnlock();</t>
-  </si>
-  <si>
-    <t>FGCCSyncObject</t>
-  </si>
-  <si>
-    <t>全局唯一的类变量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FGCCSyncObject::Get().LockAsync();</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FGCCSyncObject::Get().UnlockAsync();</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对外接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内部变量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/** Non zero if any of the non-game threads is blocking GC */</t>
-  </si>
-  <si>
-    <t>FThreadSafeCounter AsyncCounter;</t>
-  </si>
-  <si>
-    <t>/** Non zero if GC is running */</t>
-  </si>
-  <si>
-    <t>FThreadSafeCounter GCCounter;</t>
-  </si>
-  <si>
-    <t>/** Non zero if GC wants to run but is blocked by some other thread \</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    This flag is not automatically enforced on the async threads, instead</t>
-  </si>
-  <si>
-    <t>threads have to manually implement support for it. */</t>
-  </si>
-  <si>
-    <t>TAtomic&lt;int32&gt; GCWantsToRunCounter {0};</t>
-  </si>
-  <si>
-    <t>/** Critical section for thread safe operations */</t>
-  </si>
-  <si>
-    <t>FCriticalSection Critical;</t>
-  </si>
-  <si>
-    <t>/** Event used to block non-game threads when GC is running */</t>
-  </si>
-  <si>
-    <t>FEvent* GCUnlockedEvent;</t>
-  </si>
-  <si>
-    <t>GC只能在gameThread中进行，为了防止其他线程会进行操作，就需要进行同步处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要实现同步的原理就是FGCCSyncObject上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果当前GC正在进行，其他线程请求LockAsync就需要等待，等待GCunlockedEvent信号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GC没在运行时，其他线程就可以操作了，这个时候将该标志位++，主要++前需要用Critical锁一下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般是非GameThread调用上锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非GameThread调用去锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">GC调用加锁 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GC调用释放锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/** Lock for GC. Will block if any other thread has locked. */</t>
-  </si>
-  <si>
-    <t>void GCLock()</t>
-  </si>
-  <si>
-    <t>// Signal other threads that GC wants to run</t>
-  </si>
-  <si>
-    <t>SetGCIsWaiting();</t>
-  </si>
-  <si>
-    <t>// Wait until all other threads are done if they're currently holding the lock</t>
-  </si>
-  <si>
-    <t>FPlatformProcess::ConditionalSleep([&amp;]()</t>
-  </si>
-  <si>
-    <t>return AsyncCounter.GetValue() == 0;</t>
-  </si>
-  <si>
-    <t>});</t>
-  </si>
-  <si>
-    <t>if (AsyncCounter.GetValue() == 0)</t>
-  </si>
-  <si>
-    <t>GCUnlockedEvent-&gt;Reset();</t>
-  </si>
-  <si>
-    <t>int32 GCCounterValue = GCCounter.Increment();</t>
-  </si>
-  <si>
-    <t>check(GCCounterValue == 1); // GCLock doesn't support recursive locks</t>
-  </si>
-  <si>
-    <t>// At this point GC can run so remove the signal that it's waiting</t>
-  </si>
-  <si>
-    <t>FPlatformMisc::MemoryBarrier();</t>
-  </si>
-  <si>
-    <t>ResetGCIsWaiting();</t>
-  </si>
-  <si>
-    <t>实现见下面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提前设置一下自己想要锁,获得了会释放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死等，直到没其他线程在用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>但是不见得之后没人在用，所以下面还要加锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>再次判断别人用了没有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>// No other thread may be performing UObject operations while we're running</t>
-  </si>
-  <si>
-    <t>// Perform actual garbage collection</t>
-  </si>
-  <si>
-    <t>// Other threads are free to use UObjects</t>
-  </si>
-  <si>
-    <t>整个GC的过程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>先加锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InObject-&gt;ClearFlags(RF_Public | RF_Standalone);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APawn* m_pObj1 = NewObject&lt;APawn&gt;();</t>
-  </si>
-  <si>
-    <t>UTexture2D* pObj1 = Cast&lt;UTexture2D&gt;(StaticLoadObject(UTexture2D::StaticClass(), NULL, TEXT("/Game/AdvancedVillagePack/Textures/11ppp")));</t>
-  </si>
-  <si>
-    <t>CollectGarbage(RF_Standalone, true);</t>
-  </si>
-  <si>
-    <t>强制GC后，最上面的销毁了，但是下面的资源没销毁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>因为资源加载的时候，LoadPackeage的Export里面ObjFlag有这个RF_Standalone，所以不销毁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void MakeObjectPurgeable(UObject* InObject)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> * Given a package, put it into a state where a GC may purge it (assuming there are no external references).</t>
-  </si>
-  <si>
-    <t>void MakePackagePurgeable(UPackage* InPackage)</t>
-  </si>
-  <si>
-    <t>MakeObjectPurgeable(InPackage);</t>
-  </si>
-  <si>
-    <t>ForEachObjectWithPackage(InPackage, [](UObject* InObject)</t>
-  </si>
-  <si>
-    <t>MakeObjectPurgeable(InObject);</t>
-  </si>
-  <si>
-    <t>return true; // continue</t>
-  </si>
-  <si>
-    <t>ReloadPackage</t>
-  </si>
-  <si>
-    <t>清空Package的standlone标志位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重新加载的时候可以清楚之前的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void ProcessObjectArray(FGCArrayStruct&amp; InObjectsToSerializeStruct, const FGraphEventRef&amp; MyCompletionGraphEvent)</t>
-  </si>
-  <si>
-    <t>计算Reference对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FGCReferenceTokenStream* RESTRICT TokenStream = &amp;CurrentObject-&gt;GetClass()-&gt;ReferenceTokenStream;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以看到，从当前对象的Class对象里面，获取ReferenceTokenStream</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FGCReferenceInfo ReferenceInfo = TokenStream-&gt;AccessReferenceInfo(ReferenceTokenStreamIndex);</t>
-  </si>
-  <si>
-    <t>while (true)</t>
-  </si>
-  <si>
-    <t>{</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>switch(ReferenceInfo.Type)</t>
-  </si>
-  <si>
-    <t>case GCRT_Object:</t>
-  </si>
-  <si>
-    <t>case GCRT_Class:</t>
-  </si>
-  <si>
-    <t>// We're dealing with an object reference (this code should be identical to GCRT_NoopClass if ShouldProcessNoOpTokens())</t>
-  </si>
-  <si>
-    <t>UObject**</t>
-  </si>
-  <si>
-    <t>ObjectPtr = (UObject**)(StackEntryData + ReferenceInfo.Offset);</t>
-  </si>
-  <si>
-    <t>UObject*&amp;</t>
-  </si>
-  <si>
-    <t>Object = *ObjectPtr;</t>
-  </si>
-  <si>
-    <t>TokenReturnCount = ReferenceInfo.ReturnCount;</t>
-  </si>
-  <si>
-    <t>ReferenceProcessor.HandleTokenStreamObjectReference(NewObjectsToSerialize, CurrentObject, Object, ReferenceTokenStreamIndex, true);</t>
-  </si>
-  <si>
-    <t>…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>而在每一个Obj的基类里面：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void UObjectBase::EmitBaseReferences(UClass *RootClass)</t>
-  </si>
-  <si>
-    <t>static const FName ClassPropertyName(TEXT("Class"));</t>
-  </si>
-  <si>
-    <t>static const FName OuterPropertyName(TEXT("Outer"));</t>
-  </si>
-  <si>
-    <t>// Mark UObject class reference as persistent object reference so that it (ClassPrivate) doesn't get nulled when a class</t>
-  </si>
-  <si>
-    <t>// is marked as pending kill. Nulling ClassPrivate may leave the object in a broken state if it doesn't get GC'd in the same</t>
-  </si>
-  <si>
-    <t>// GC call as its class. And even if it gets GC'd in the same call as its class it may break inside of GC (for example when traversing TMap references)</t>
-  </si>
-  <si>
-    <t>RootClass-&gt;EmitObjectReference(STRUCT_OFFSET(UObjectBase, ClassPrivate), ClassPropertyName, GCRT_PersistentObject);</t>
-  </si>
-  <si>
-    <t>RootClass-&gt;EmitObjectReference(STRUCT_OFFSET(UObjectBase, OuterPrivate), OuterPropertyName, GCRT_PersistentObject);</t>
-  </si>
-  <si>
-    <t>RootClass-&gt;EmitExternalPackageReference();</t>
-  </si>
-  <si>
-    <t>先将该对象的ClassPrivate和OuterPrivate对象放入类的ReferenceToken里面，防止被GC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void UClass::EmitObjectReference(int32 Offset, const FName&amp; DebugName, EGCReferenceType Kind)</t>
-  </si>
-  <si>
-    <t>FGCReferenceInfo ObjectReference(Kind, Offset);</t>
-  </si>
-  <si>
-    <t>ReferenceTokenStream.EmitReferenceInfo(ObjectReference, DebugName);</t>
-  </si>
-  <si>
-    <t>这块就和最上面的对应起来了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -889,23 +888,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -941,23 +923,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1133,11 +1098,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="36.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1164,7 +1129,7 @@
     </row>
     <row r="6" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1</v>
@@ -1463,7 +1428,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7F72EF-722D-4FB9-978B-54C0A02FF8DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1494,7 +1459,7 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.15">
@@ -1524,7 +1489,7 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.15">
@@ -1534,7 +1499,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.15">
@@ -1544,7 +1509,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.15">
@@ -1554,7 +1519,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.15">
@@ -1564,12 +1529,12 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.15">
@@ -1579,17 +1544,17 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.15">
@@ -1599,37 +1564,37 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B33" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C43" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1639,7 +1604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986A7F82-C594-4C4D-8605-F938AB8CD590}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:W123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1650,7 +1615,7 @@
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -1661,7 +1626,7 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -1681,121 +1646,121 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" t="s">
         <v>98</v>
-      </c>
-      <c r="D9" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C10" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C15" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.15">
       <c r="D17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.15">
       <c r="D18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.15">
       <c r="D19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.15">
       <c r="D20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.15">
       <c r="E21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.15">
       <c r="G22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.15">
       <c r="D23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.15">
       <c r="D24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.15">
       <c r="D25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.15">
       <c r="D26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.15">
       <c r="D27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
@@ -1843,7 +1808,7 @@
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
@@ -1855,7 +1820,7 @@
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.15">
       <c r="M31" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
@@ -1872,10 +1837,10 @@
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" t="s">
         <v>72</v>
-      </c>
-      <c r="D32" t="s">
-        <v>73</v>
       </c>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
@@ -1894,7 +1859,7 @@
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
@@ -1906,7 +1871,7 @@
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.15">
       <c r="M34" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
@@ -1939,7 +1904,7 @@
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
@@ -1951,7 +1916,7 @@
     </row>
     <row r="37" spans="3:23" x14ac:dyDescent="0.15">
       <c r="M37" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
@@ -1968,7 +1933,7 @@
     </row>
     <row r="38" spans="3:23" x14ac:dyDescent="0.15">
       <c r="C38" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" t="s">
         <v>69</v>
@@ -1976,12 +1941,12 @@
     </row>
     <row r="39" spans="3:23" x14ac:dyDescent="0.15">
       <c r="C39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="3:23" x14ac:dyDescent="0.15">
       <c r="C40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="3:23" x14ac:dyDescent="0.15">
@@ -1991,7 +1956,7 @@
     </row>
     <row r="42" spans="3:23" x14ac:dyDescent="0.15">
       <c r="D42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="3:23" x14ac:dyDescent="0.15">
@@ -2001,17 +1966,17 @@
     </row>
     <row r="44" spans="3:23" x14ac:dyDescent="0.15">
       <c r="E44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="3:23" x14ac:dyDescent="0.15">
       <c r="E45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="3:23" x14ac:dyDescent="0.15">
       <c r="E46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="3:23" x14ac:dyDescent="0.15">
@@ -2021,7 +1986,7 @@
     </row>
     <row r="48" spans="3:23" x14ac:dyDescent="0.15">
       <c r="F48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="3:14" x14ac:dyDescent="0.15">
@@ -2031,7 +1996,7 @@
     </row>
     <row r="50" spans="3:14" x14ac:dyDescent="0.15">
       <c r="G50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="3:14" x14ac:dyDescent="0.15">
@@ -2046,15 +2011,15 @@
     </row>
     <row r="53" spans="3:14" x14ac:dyDescent="0.15">
       <c r="G53" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="3:14" x14ac:dyDescent="0.15">
       <c r="G54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="3:14" x14ac:dyDescent="0.15">
@@ -2064,12 +2029,12 @@
     </row>
     <row r="56" spans="3:14" x14ac:dyDescent="0.15">
       <c r="H56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="3:14" x14ac:dyDescent="0.15">
       <c r="H57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="3:14" x14ac:dyDescent="0.15">
@@ -2084,7 +2049,7 @@
     </row>
     <row r="60" spans="3:14" x14ac:dyDescent="0.15">
       <c r="E60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="3:14" x14ac:dyDescent="0.15">
@@ -2099,17 +2064,17 @@
     </row>
     <row r="63" spans="3:14" x14ac:dyDescent="0.15">
       <c r="C63" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="3:14" x14ac:dyDescent="0.15">
       <c r="C64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="3:14" x14ac:dyDescent="0.15">
       <c r="C65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="3:14" x14ac:dyDescent="0.15">
@@ -2119,7 +2084,7 @@
     </row>
     <row r="67" spans="3:14" x14ac:dyDescent="0.15">
       <c r="D67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="3:14" x14ac:dyDescent="0.15">
@@ -2129,7 +2094,7 @@
     </row>
     <row r="69" spans="3:14" x14ac:dyDescent="0.15">
       <c r="E69" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="3:14" x14ac:dyDescent="0.15">
@@ -2144,12 +2109,12 @@
     </row>
     <row r="74" spans="3:14" x14ac:dyDescent="0.15">
       <c r="C74" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75" spans="3:14" x14ac:dyDescent="0.15">
       <c r="C75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="3:14" x14ac:dyDescent="0.15">
@@ -2159,25 +2124,25 @@
     </row>
     <row r="77" spans="3:14" x14ac:dyDescent="0.15">
       <c r="D77" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="3:14" x14ac:dyDescent="0.15">
       <c r="D78" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N78" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79" spans="3:14" x14ac:dyDescent="0.15">
       <c r="D79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="3:14" x14ac:dyDescent="0.15">
       <c r="D80" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="3:5" x14ac:dyDescent="0.15">
@@ -2187,7 +2152,7 @@
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.15">
@@ -2202,12 +2167,12 @@
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C85" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C86" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.15">
@@ -2217,7 +2182,7 @@
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D88" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.15">
@@ -2227,12 +2192,12 @@
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D95" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="96" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D96" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="97" spans="4:15" x14ac:dyDescent="0.15">
@@ -2242,30 +2207,30 @@
     </row>
     <row r="98" spans="4:15" x14ac:dyDescent="0.15">
       <c r="E98" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="99" spans="4:15" x14ac:dyDescent="0.15">
       <c r="E99" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O99" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="101" spans="4:15" x14ac:dyDescent="0.15">
       <c r="E101" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="102" spans="4:15" x14ac:dyDescent="0.15">
       <c r="E102" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="103" spans="4:15" x14ac:dyDescent="0.15">
       <c r="E103" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="104" spans="4:15" x14ac:dyDescent="0.15">
@@ -2275,10 +2240,10 @@
     </row>
     <row r="105" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F105" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O105" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="106" spans="4:15" x14ac:dyDescent="0.15">
@@ -2286,17 +2251,17 @@
         <v>66</v>
       </c>
       <c r="O106" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="107" spans="4:15" x14ac:dyDescent="0.15">
       <c r="G107" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="108" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F108" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="109" spans="4:15" x14ac:dyDescent="0.15">
@@ -2306,18 +2271,18 @@
     </row>
     <row r="110" spans="4:15" x14ac:dyDescent="0.15">
       <c r="G110" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O110" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="4:15" x14ac:dyDescent="0.15">
       <c r="G111" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O111" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="112" spans="4:15" x14ac:dyDescent="0.15">
@@ -2327,40 +2292,40 @@
     </row>
     <row r="113" spans="4:15" x14ac:dyDescent="0.15">
       <c r="H113" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="114" spans="4:15" x14ac:dyDescent="0.15">
       <c r="H114" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="115" spans="4:15" x14ac:dyDescent="0.15">
       <c r="H115" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116" spans="4:15" x14ac:dyDescent="0.15">
       <c r="H116" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117" spans="4:15" x14ac:dyDescent="0.15">
       <c r="H117" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="118" spans="4:15" x14ac:dyDescent="0.15">
       <c r="H118" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O118" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="119" spans="4:15" x14ac:dyDescent="0.15">
       <c r="H119" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="120" spans="4:15" x14ac:dyDescent="0.15">
@@ -2375,7 +2340,7 @@
     </row>
     <row r="122" spans="4:15" x14ac:dyDescent="0.15">
       <c r="E122" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="123" spans="4:15" x14ac:dyDescent="0.15">
@@ -2391,10 +2356,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1673AF4D-1FF6-43DB-B395-4E7841F5253D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -2402,52 +2367,52 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D9" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D10" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E13" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.15">
@@ -2457,33 +2422,33 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="G18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="G19" t="s">
+        <v>179</v>
+      </c>
+      <c r="H19" t="s">
         <v>180</v>
-      </c>
-      <c r="H19" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="G20" t="s">
+        <v>181</v>
+      </c>
+      <c r="H20" t="s">
         <v>182</v>
-      </c>
-      <c r="H20" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="G21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="G22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.15">
@@ -2493,22 +2458,22 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="F25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.15">
       <c r="F26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B31" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C31" s="5"/>
     </row>
@@ -2517,12 +2482,12 @@
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D33" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.15">
@@ -2532,42 +2497,42 @@
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.15">
@@ -2577,12 +2542,12 @@
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D46" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="4:5" x14ac:dyDescent="0.15">
@@ -2592,12 +2557,12 @@
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E49" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E50" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="4:5" x14ac:dyDescent="0.15">

--- a/doc/ue_gc.xlsx
+++ b/doc/ue_gc.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C6ED3B-1B9B-4A75-B615-98B9A6B169EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gc" sheetId="7" r:id="rId1"/>
     <sheet name="Standalone" sheetId="8" r:id="rId2"/>
     <sheet name="多线程" sheetId="9" r:id="rId3"/>
     <sheet name="TokenStream" sheetId="10" r:id="rId4"/>
+    <sheet name="Engine-Tick-GC" sheetId="11" r:id="rId5"/>
+    <sheet name="参数配置说明" sheetId="12" r:id="rId6"/>
+    <sheet name="增量净化" sheetId="13" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="211">
   <si>
     <t>GC调用</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -712,13 +716,43 @@
   </si>
   <si>
     <t>CollectGarbage(GARBAGE_COLLECTION_KEEPFLAGS, true);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Engine的TicK中GC实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTimeBetweenPurgingPendingKillObjects</t>
+  </si>
+  <si>
+    <t>和这个间隔事件有关系，具体需要看这个间隔事件是多久</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GObjIncrementalPurgeIsInProgress</t>
+  </si>
+  <si>
+    <t>GObjPurgeIsRequired</t>
+  </si>
+  <si>
+    <t>void IncrementalPurgeGarbage(bool bUseTimeLimit, float TimeLimit)</t>
+  </si>
+  <si>
+    <t>static bool IncrementalDestroyGarbage(bool bUseTimeLimit, float TimeLimit);</t>
+  </si>
+  <si>
+    <t>GEngine-&gt;ConditionalCollectGarbage();</t>
+  </si>
+  <si>
+    <t>每一次TICK都会调用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -812,6 +846,55 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>569897</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>84868</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{705E159A-D952-3A9B-780C-E51CEDB6C864}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1466850" y="1800225"/>
+          <a:ext cx="12819047" cy="6857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -888,6 +971,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -923,6 +1023,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1098,10 +1215,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1428,7 +1545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B5:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1604,10 +1721,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:W123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -2356,7 +2473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:H51"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -2574,4 +2691,101 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC3B726-ED97-4BFF-B0D2-DBD8F4454200}">
+  <dimension ref="C3:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C3" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D6" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A9866D-A905-4000-8F18-4FC9D461B883}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{877E1EF2-05ED-4C07-B139-19847C736426}">
+  <dimension ref="B3:C35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B3" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_gc.xlsx
+++ b/doc/ue_gc.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C6ED3B-1B9B-4A75-B615-98B9A6B169EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5826B653-F299-48E5-B2E1-8C647A091CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gc" sheetId="7" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="Engine-Tick-GC" sheetId="11" r:id="rId5"/>
     <sheet name="参数配置说明" sheetId="12" r:id="rId6"/>
     <sheet name="增量净化" sheetId="13" r:id="rId7"/>
+    <sheet name="优化" sheetId="14" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="229">
   <si>
     <t>GC调用</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -746,6 +747,71 @@
   </si>
   <si>
     <t>每一次TICK都会调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template &lt;bool bParallel, bool bWithClusters&gt;</t>
+  </si>
+  <si>
+    <t>void MarkObjectsAsUnreachable(TArray&lt;UObject*&gt;&amp; ObjectsToSerialize, const EObjectFlags KeepFlags)</t>
+  </si>
+  <si>
+    <t>扫描所有对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可达的物体，放入到ObjectsToSerialize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否则标记为不可达，等待遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如标记为ROOT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑器下面的STANDLONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template &lt;EFastReferenceCollectorOptions CollectorOptions&gt;</t>
+  </si>
+  <si>
+    <t>void PerformReachabilityAnalysisOnObjectsInternal(FGCArrayStruct* ArrayStruct)</t>
+  </si>
+  <si>
+    <t>ReferenceCollector.CollectReferences(*ArrayStruct);</t>
+  </si>
+  <si>
+    <t>开始收集所有可达对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标记不可达对象，同时收集可达对象（用于引用遍历）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历可达对象的引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void CollectReferences(FGCArrayStruct&amp; ArrayStruct)</t>
+  </si>
+  <si>
+    <t>非多线程模式举例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FGCReferenceTokenStream* RESTRICT TokenStream = &amp;CurrentObject-&gt;GetClass()-&gt;ReferenceTokenStream;</t>
+  </si>
+  <si>
+    <t>获取对象类的引用token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！最简单的方式就是把自己生成的对象标记为root</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1218,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="36.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2744,7 +2810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{877E1EF2-05ED-4C07-B139-19847C736426}">
   <dimension ref="B3:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
@@ -2788,4 +2854,138 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385792FE-205F-4662-AC18-44304BDC5251}">
+  <dimension ref="B6:P36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="D11" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>214</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="6">
+        <v>2</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D25" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D26" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D28" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="6">
+        <v>3</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D35" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D36" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_gc.xlsx
+++ b/doc/ue_gc.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5826B653-F299-48E5-B2E1-8C647A091CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="gc" sheetId="7" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="230">
   <si>
     <t>GC调用</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -812,13 +811,17 @@
   </si>
   <si>
     <t>！！！！最简单的方式就是把自己生成的对象标记为root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void ProcessObjectArray(FGCArrayStruct&amp; InObjectsToSerializeStruct, const FGraphEventRef&amp; MyCompletionGraphEvent)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1037,23 +1040,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1089,23 +1075,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1281,10 +1250,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" workbookViewId="0">
+    <sheetView topLeftCell="C46" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -1611,10 +1580,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
@@ -1787,10 +1756,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:W123"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A109" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -2539,11 +2508,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2555,7 +2524,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
-        <v>167</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.15">
@@ -2760,10 +2729,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC3B726-ED97-4BFF-B0D2-DBD8F4454200}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
@@ -2793,7 +2762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A9866D-A905-4000-8F18-4FC9D461B883}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2807,8 +2776,8 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{877E1EF2-05ED-4C07-B139-19847C736426}">
-  <dimension ref="B3:C35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
@@ -2846,9 +2815,6 @@
         <v>208</v>
       </c>
     </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2857,11 +2823,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385792FE-205F-4662-AC18-44304BDC5251}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/ue_gc.xlsx
+++ b/doc/ue_gc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778"/>
   </bookViews>
   <sheets>
     <sheet name="gc" sheetId="7" r:id="rId1"/>
@@ -1253,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView topLeftCell="C46" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="36.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1448,7 +1448,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="4:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="4:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D31" s="2" t="s">
         <v>37</v>
       </c>
@@ -1461,12 +1461,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E33" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D34" s="2" t="s">
         <v>39</v>
       </c>
@@ -1759,8 +1759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:W123"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2511,7 +2511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
@@ -2732,7 +2732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:D7"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
@@ -2826,7 +2826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:P36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>

--- a/doc/ue_gc.xlsx
+++ b/doc/ue_gc.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5452535F-4FE1-4FE1-8BD0-C3852EA965A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gc" sheetId="7" r:id="rId1"/>
@@ -15,13 +16,14 @@
     <sheet name="参数配置说明" sheetId="12" r:id="rId6"/>
     <sheet name="增量净化" sheetId="13" r:id="rId7"/>
     <sheet name="优化" sheetId="14" r:id="rId8"/>
+    <sheet name="线程局部存储的内存释放" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="231">
   <si>
     <t>GC调用</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -816,12 +818,15 @@
   <si>
     <t>void ProcessObjectArray(FGCArrayStruct&amp; InObjectsToSerializeStruct, const FGraphEventRef&amp; MyCompletionGraphEvent)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FMallocBinnedGPU::FlushCurrentThreadCache()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -964,6 +969,72 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0E15712-4696-E306-CA27-20B2E90969CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="15020925" cy="6467475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -1040,6 +1111,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1075,6 +1163,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1250,10 +1355,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
@@ -1580,7 +1685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B5:E43"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -1756,7 +1861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:W123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2508,7 +2613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2729,7 +2834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C3:D7"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -2762,7 +2867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2776,7 +2881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B3:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2823,7 +2928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B6:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2954,4 +3059,27 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8405BD-6574-425D-B313-33BE14A55058}">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>